--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>label</t>
   </si>
@@ -68,7 +68,7 @@
     <t>reaction_type</t>
   </si>
   <si>
-    <t>RO2POC</t>
+    <t>RFeOOHPOC</t>
   </si>
   <si>
     <t>CH2O</t>
@@ -92,81 +92,75 @@
     <t>solid</t>
   </si>
   <si>
-    <t>O2</t>
+    <t>FeOOH</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>H,H,OH</t>
+  </si>
+  <si>
+    <t>dissolved_summed_pH</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>TCO2,HCO3,CO3,CO2</t>
+  </si>
+  <si>
+    <t>TCO2</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>TFe,Fe{2+}/Fe_free,Fe_ads</t>
+  </si>
+  <si>
+    <t>TFe</t>
+  </si>
+  <si>
+    <t>dissolved_adsorbed_summed</t>
+  </si>
+  <si>
+    <t>RSO4POC</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>-1/2</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>dissolved</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>TCO2,HCO3,CO3,CO2</t>
-  </si>
-  <si>
-    <t>TCO2</t>
-  </si>
-  <si>
-    <t>dissolved_summed_pH</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC</t>
-  </si>
-  <si>
-    <t>FeOOH</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>H,H,OH</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>TFe,Fe{2+}/Fe_free,Fe_ads</t>
-  </si>
-  <si>
-    <t>TFe</t>
-  </si>
-  <si>
-    <t>dissolved_adsorbed_summed</t>
-  </si>
-  <si>
-    <t>RSO4POC</t>
-  </si>
-  <si>
-    <t>SO4</t>
-  </si>
-  <si>
-    <t>-1/2</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>H2S</t>
   </si>
   <si>
@@ -179,42 +173,21 @@
     <t>TH2S</t>
   </si>
   <si>
-    <t>RO2Fe</t>
-  </si>
-  <si>
-    <t>-1/4</t>
+    <t>RFeOOHH2S</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>RO2Fe_ads</t>
-  </si>
-  <si>
-    <t>Fe_ads</t>
-  </si>
-  <si>
-    <t>adsorbed</t>
-  </si>
-  <si>
-    <t>RO2H2S</t>
-  </si>
-  <si>
-    <t>RFeOOHH2S</t>
-  </si>
-  <si>
-    <t>RFeS_dis</t>
+    <t>RFeS_pre</t>
+  </si>
+  <si>
+    <t>HS</t>
   </si>
   <si>
     <t>FeS</t>
   </si>
   <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>RFeS_pre</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -248,40 +221,28 @@
     <t>7</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-3/2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>dependence</t>
   </si>
   <si>
-    <t>FeOOH,O2,POC,SO4,TFe,TH2S,TCO2,H,FeS</t>
-  </si>
-  <si>
-    <t>O2,POC,FeOOH,SO4</t>
-  </si>
-  <si>
-    <t>O2,POC,TFe,TH2S</t>
-  </si>
-  <si>
-    <t>FeOOH,O2,POC,TFe,TH2S</t>
-  </si>
-  <si>
-    <t>FeOOH,O2,POC,TFe,TH2S,TCO2,H,SO4,FeS</t>
-  </si>
-  <si>
-    <t>SO4,FeOOH,O2,POC,TH2S</t>
-  </si>
-  <si>
-    <t>SO4,FeOOH,O2,POC,TH2S,TCO2,H,TFe,FeS</t>
-  </si>
-  <si>
-    <t>TCO2,H,TH2S,TFe,POC,SO4,FeS</t>
+    <t>FeOOH,POC,SO4,TH2S,TCO2,H,Fe_free,TFe</t>
+  </si>
+  <si>
+    <t>FeOOH,POC,SO4</t>
+  </si>
+  <si>
+    <t>FeOOH,POC,TH2S</t>
+  </si>
+  <si>
+    <t>FeOOH,POC,TH2S,TCO2,H,Fe_free,TFe,SO4</t>
+  </si>
+  <si>
+    <t>SO4,FeOOH,POC</t>
+  </si>
+  <si>
+    <t>SO4,FeOOH,POC,TH2S,TCO2,H,Fe_free,TFe</t>
+  </si>
+  <si>
+    <t>TCO2,H,TH2S,Fe_free,POC,TFe,SO4</t>
   </si>
   <si>
     <t>parameter</t>
@@ -290,27 +251,24 @@
     <t>type</t>
   </si>
   <si>
+    <t>POCID</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>FeOOHID</t>
+  </si>
+  <si>
+    <t>FeSID</t>
+  </si>
+  <si>
+    <t>SO4ID</t>
+  </si>
+  <si>
     <t>TFeID</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>POCID</t>
-  </si>
-  <si>
-    <t>FeOOHID</t>
-  </si>
-  <si>
-    <t>FeSID</t>
-  </si>
-  <si>
-    <t>O2ID</t>
-  </si>
-  <si>
-    <t>SO4ID</t>
-  </si>
-  <si>
     <t>HID</t>
   </si>
   <si>
@@ -332,9 +290,6 @@
     <t>AmFeS</t>
   </si>
   <si>
-    <t>AmO2</t>
-  </si>
-  <si>
     <t>AmSO4</t>
   </si>
   <si>
@@ -386,12 +341,6 @@
     <t>BcCmFeS</t>
   </si>
   <si>
-    <t>BcAmO2</t>
-  </si>
-  <si>
-    <t>BcCmO2</t>
-  </si>
-  <si>
     <t>BcAmSO4</t>
   </si>
   <si>
@@ -461,9 +410,6 @@
     <t>bioirrigation</t>
   </si>
   <si>
-    <t>O20</t>
-  </si>
-  <si>
     <t>SO40</t>
   </si>
   <si>
@@ -533,52 +479,34 @@
     <t>saturation</t>
   </si>
   <si>
-    <t>Omega_RFeS_dis,Omega_RFeS_pre</t>
+    <t>Omega_RFeS_pre</t>
   </si>
   <si>
     <t>reaction rate</t>
   </si>
   <si>
-    <t>S_O2,S_TCO2,S_TFe,S_SO4,S_TH2S,S_TA,S_TA</t>
+    <t>S_TCO2,S_TFe,S_SO4,S_TH2S,S_TA</t>
   </si>
   <si>
     <t>pwtods</t>
   </si>
   <si>
-    <t>S_FeOOH,S_FeS</t>
-  </si>
-  <si>
-    <t>KO2</t>
-  </si>
-  <si>
-    <t>RO2POC,RFeOOHPOC,RSO4POC</t>
+    <t>S_FeS</t>
+  </si>
+  <si>
+    <t>KFeOOH</t>
+  </si>
+  <si>
+    <t>RFeOOHPOC,RSO4POC</t>
   </si>
   <si>
     <t>k_POC</t>
   </si>
   <si>
-    <t>KFeOOH</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC,RSO4POC</t>
-  </si>
-  <si>
     <t>KSO4</t>
   </si>
   <si>
-    <t>kO2Fe</t>
-  </si>
-  <si>
-    <t>kO2Fe_ads</t>
-  </si>
-  <si>
-    <t>kO2H2S</t>
-  </si>
-  <si>
     <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSdis</t>
   </si>
   <si>
     <t>kFeSpre</t>
@@ -933,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1004,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1021,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1037,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
@@ -1060,26 +988,26 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
       <c r="J4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -1087,35 +1015,35 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
@@ -1123,35 +1051,35 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -1159,35 +1087,35 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -1195,35 +1123,35 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -1231,35 +1159,35 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1267,35 +1195,35 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -1303,35 +1231,35 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -1339,35 +1267,35 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -1375,35 +1303,35 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1411,35 +1339,35 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -1447,38 +1375,38 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1486,35 +1414,35 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1522,35 +1450,35 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1558,719 +1486,71 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33">
-        <v>9</v>
-      </c>
-      <c r="K33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2288,26 +1568,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2328,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2339,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2350,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2361,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2372,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2383,10 +1663,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2394,10 +1674,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2405,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2416,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -2424,164 +1704,164 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2589,43 +1869,43 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -2633,486 +1913,46 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +1962,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3133,15 +1973,15 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3149,7 +1989,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3157,23 +1997,23 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3181,31 +2021,23 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3223,183 +2055,183 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
@@ -3407,7 +2239,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
@@ -3415,370 +2247,330 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +2580,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3796,189 +2588,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>label</t>
   </si>
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -137,7 +137,7 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TFe,Fe{2+}/Fe_free,Fe_ads</t>
+    <t>TFe,Fe{2+}/Fe_aq,FeCl{+}/FeCl_aq,(FeSO4)[1]/FeSO4_aq,(FeCO3)[1]/FeCO3_aq,FeHS{+}/FeHS_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_POC</t>
   </si>
   <si>
     <t>TFe</t>
@@ -221,10 +221,13 @@
     <t>7</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>dependence</t>
   </si>
   <si>
-    <t>FeOOH,POC,SO4,TH2S,TCO2,H,Fe_free,TFe</t>
+    <t>FeOOH,POC,SO4,TH2S,TCO2,H,TFe</t>
   </si>
   <si>
     <t>FeOOH,POC,SO4</t>
@@ -233,16 +236,16 @@
     <t>FeOOH,POC,TH2S</t>
   </si>
   <si>
-    <t>FeOOH,POC,TH2S,TCO2,H,Fe_free,TFe,SO4</t>
+    <t>FeOOH,POC,TH2S,TCO2,H,TFe,SO4</t>
   </si>
   <si>
     <t>SO4,FeOOH,POC</t>
   </si>
   <si>
-    <t>SO4,FeOOH,POC,TH2S,TCO2,H,Fe_free,TFe</t>
-  </si>
-  <si>
-    <t>TCO2,H,TH2S,Fe_free,POC,TFe,SO4</t>
+    <t>SO4,FeOOH,POC,TH2S,TCO2,H,TFe</t>
+  </si>
+  <si>
+    <t>TCO2,H,TH2S,TFe,POC,SO4</t>
   </si>
   <si>
     <t>parameter</t>
@@ -314,10 +317,10 @@
     <t>AmHS</t>
   </si>
   <si>
-    <t>AmFe</t>
-  </si>
-  <si>
-    <t>AmFe_ads</t>
+    <t>AmTFe_dis</t>
+  </si>
+  <si>
+    <t>AmTFe_ads_POC</t>
   </si>
   <si>
     <t>BcAmPOC</t>
@@ -392,16 +395,16 @@
     <t>BcCmHS</t>
   </si>
   <si>
-    <t>BcAmFe</t>
-  </si>
-  <si>
-    <t>BcCmFe</t>
-  </si>
-  <si>
-    <t>BcAmFe_ads</t>
-  </si>
-  <si>
-    <t>BcCmFe_ads</t>
+    <t>BcAmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcCmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcAmTFe_ads_POC</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads_POC</t>
   </si>
   <si>
     <t>alpha</t>
@@ -434,43 +437,46 @@
     <t>HS0</t>
   </si>
   <si>
-    <t>Fe0</t>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>dstopw</t>
+  </si>
+  <si>
+    <t>adsorption</t>
+  </si>
+  <si>
+    <t>KH2O</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>KCO2</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>KH2S</t>
   </si>
   <si>
     <t>KFe_ads</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>dstopw</t>
-  </si>
-  <si>
-    <t>KH2O</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>KCO2</t>
-  </si>
-  <si>
-    <t>KHCO3</t>
-  </si>
-  <si>
-    <t>KH2S</t>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>TFe_dis,Fe_ads</t>
+  </si>
+  <si>
+    <t>TFe_dis</t>
   </si>
   <si>
     <t>Cl</t>
   </si>
   <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads</t>
+    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1597,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1891,67 +1897,188 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1973,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1981,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1989,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1997,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2005,7 +2132,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2013,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2021,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2029,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2037,7 +2164,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2055,495 +2182,495 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -2551,7 +2678,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
@@ -2559,17 +2686,9 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2588,10 +2707,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -2610,10 +2729,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>146</v>
@@ -2621,76 +2740,76 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -2698,10 +2817,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -2709,10 +2828,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -16,9 +16,10 @@
     <sheet name="species_in_model" sheetId="1" r:id="rId1"/>
     <sheet name="species_extra" r:id="rId5" sheetId="2"/>
     <sheet name="elements_in_reactions" r:id="rId6" sheetId="3"/>
-    <sheet name="reaction_dependency" r:id="rId7" sheetId="4"/>
-    <sheet name="transport_parameters" r:id="rId8" sheetId="5"/>
-    <sheet name="reaction_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="speciation" r:id="rId7" sheetId="4"/>
+    <sheet name="reaction_dependency" r:id="rId8" sheetId="5"/>
+    <sheet name="transport_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="reaction_parameters" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>label</t>
   </si>
@@ -107,10 +108,13 @@
     <t>+1</t>
   </si>
   <si>
-    <t>H,H,OH</t>
-  </si>
-  <si>
-    <t>dissolved_summed_pH</t>
+    <t>H,H{+},OH{-}</t>
+  </si>
+  <si>
+    <t>dissolved_pH</t>
+  </si>
+  <si>
+    <t>dissolved</t>
   </si>
   <si>
     <t>CO2</t>
@@ -122,7 +126,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>TCO2,HCO3,CO3,CO2</t>
+    <t>TCO2,HCO3{-},CO3{2-},CO2</t>
   </si>
   <si>
     <t>TCO2</t>
@@ -137,13 +141,13 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TFe,Fe{2+}/Fe_aq,FeCl{+}/FeCl_aq,(FeSO4)[1]/FeSO4_aq,(FeCO3)[1]/FeCO3_aq,FeHS{+}/FeHS_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_POC</t>
+    <t>TFe,Fe{2+}/Fe_aq,FeCl{+}/FeCl_aq,(FeSO4)[1]/FeSO4_aq,(FeCO3)[1]/FeCO3_aq,FeHS{+}/FeHS_aq,Fe_aqLorg_aq/FeLorg_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_POC</t>
   </si>
   <si>
     <t>TFe</t>
   </si>
   <si>
-    <t>dissolved_adsorbed_summed</t>
+    <t>dissolved_speciation</t>
   </si>
   <si>
     <t>RSO4POC</t>
@@ -158,16 +162,13 @@
     <t>-2</t>
   </si>
   <si>
-    <t>dissolved</t>
-  </si>
-  <si>
     <t>H2S</t>
   </si>
   <si>
     <t>1/2</t>
   </si>
   <si>
-    <t>TH2S,H2S,HS</t>
+    <t>TH2S,H2S,HS{-}</t>
   </si>
   <si>
     <t>TH2S</t>
@@ -194,6 +195,12 @@
     <t>comment</t>
   </si>
   <si>
+    <t>Lorg,Lorg_aq/Lorg_aq,Fe_aqLorg_aq/FeLorg_aq,Lorg_dis</t>
+  </si>
+  <si>
+    <t>modelled but not in chemical equation</t>
+  </si>
+  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -224,10 +231,100 @@
     <t>8</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>formula_</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Fe_aq</t>
+  </si>
+  <si>
+    <t>Fe{2+}</t>
+  </si>
+  <si>
+    <t>Dissolved</t>
+  </si>
+  <si>
+    <t>FeCl_aq</t>
+  </si>
+  <si>
+    <t>FeCl{+}</t>
+  </si>
+  <si>
+    <t>FeCl</t>
+  </si>
+  <si>
+    <t>FeSO4_aq</t>
+  </si>
+  <si>
+    <t>(FeSO4)[1]</t>
+  </si>
+  <si>
+    <t>FeCO3_aq</t>
+  </si>
+  <si>
+    <t>(FeCO3)[1]</t>
+  </si>
+  <si>
+    <t>FeHS_aq</t>
+  </si>
+  <si>
+    <t>FeHS{+}</t>
+  </si>
+  <si>
+    <t>FeHS</t>
+  </si>
+  <si>
+    <t>FeLorg_aq</t>
+  </si>
+  <si>
+    <t>Fe_aqLorg_aq</t>
+  </si>
+  <si>
+    <t>TFe_dis</t>
+  </si>
+  <si>
+    <t>Total dissolved</t>
+  </si>
+  <si>
+    <t>Fe_ads</t>
+  </si>
+  <si>
+    <t>adsorbed</t>
+  </si>
+  <si>
+    <t>Adsorbed</t>
+  </si>
+  <si>
+    <t>TFe_ads</t>
+  </si>
+  <si>
+    <t>Total adsorbed</t>
+  </si>
+  <si>
+    <t>TFe_ads_POC</t>
+  </si>
+  <si>
+    <t>Surface adsorbed</t>
+  </si>
+  <si>
+    <t>Lorg</t>
+  </si>
+  <si>
+    <t>Lorg_aq</t>
+  </si>
+  <si>
+    <t>Lorg_dis</t>
+  </si>
+  <si>
     <t>dependence</t>
   </si>
   <si>
-    <t>FeOOH,POC,SO4,TH2S,TCO2,H,TFe</t>
+    <t>FeOOH,POC,SO4,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,Lorg</t>
   </si>
   <si>
     <t>FeOOH,POC,SO4</t>
@@ -236,24 +333,21 @@
     <t>FeOOH,POC,TH2S</t>
   </si>
   <si>
-    <t>FeOOH,POC,TH2S,TCO2,H,TFe,SO4</t>
+    <t>FeOOH,POC,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,SO4,Lorg</t>
   </si>
   <si>
     <t>SO4,FeOOH,POC</t>
   </si>
   <si>
-    <t>SO4,FeOOH,POC,TH2S,TCO2,H,TFe</t>
-  </si>
-  <si>
-    <t>TCO2,H,TH2S,TFe,POC,SO4</t>
+    <t>SO4,FeOOH,POC,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,Lorg</t>
+  </si>
+  <si>
+    <t>TCO2,H,TH2S,TFe,POC,Lorg_dis,Fe_aq,SO4,Lorg</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>POCID</t>
   </si>
   <si>
@@ -281,6 +375,9 @@
     <t>TH2SID</t>
   </si>
   <si>
+    <t>LorgID</t>
+  </si>
+  <si>
     <t>AmPOC</t>
   </si>
   <si>
@@ -320,7 +417,10 @@
     <t>AmTFe_dis</t>
   </si>
   <si>
-    <t>AmTFe_ads_POC</t>
+    <t>AmTFe_ads</t>
+  </si>
+  <si>
+    <t>AmLorg_dis</t>
   </si>
   <si>
     <t>BcAmPOC</t>
@@ -401,10 +501,16 @@
     <t>BcCmTFe_dis</t>
   </si>
   <si>
-    <t>BcAmTFe_ads_POC</t>
-  </si>
-  <si>
-    <t>BcCmTFe_ads_POC</t>
+    <t>BcAmTFe_ads</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads</t>
+  </si>
+  <si>
+    <t>BcAmLorg_dis</t>
+  </si>
+  <si>
+    <t>BcCmLorg_dis</t>
   </si>
   <si>
     <t>alpha</t>
@@ -413,7 +519,7 @@
     <t>bioirrigation</t>
   </si>
   <si>
-    <t>SO40</t>
+    <t>SO4BW</t>
   </si>
   <si>
     <t>H0</t>
@@ -440,6 +546,9 @@
     <t>TFe_dis0</t>
   </si>
   <si>
+    <t>Lorg_dis0</t>
+  </si>
+  <si>
     <t>dstopw</t>
   </si>
   <si>
@@ -470,13 +579,10 @@
     <t>TFe_dis,Fe_ads</t>
   </si>
   <si>
-    <t>TFe_dis</t>
-  </si>
-  <si>
     <t>Cl</t>
   </si>
   <si>
-    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
+    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq,FeLorg_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1013,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -1024,23 +1130,23 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1049,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
@@ -1060,32 +1166,32 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -1093,7 +1199,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1129,35 +1235,35 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -1165,7 +1271,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1193,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1201,26 +1307,26 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -1229,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -1237,7 +1343,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1249,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -1265,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -1279,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1337,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1373,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -1384,32 +1490,32 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
         <v>19</v>
@@ -1420,35 +1526,35 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1481,10 +1587,10 @@
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1495,13 +1601,13 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -1520,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1531,13 +1637,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1553,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1593,7 +1699,15 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1625,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1639,7 +1753,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1647,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1658,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1669,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1680,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1713,10 +1827,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1724,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -1735,10 +1849,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1749,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1757,18 +1871,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1776,21 +1890,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1798,29 +1912,29 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1831,21 +1945,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1853,21 +1967,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1875,7 +1989,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1886,13 +2000,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1900,10 +2014,10 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1911,10 +2025,10 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1922,10 +2036,10 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1936,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1947,7 +2061,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1955,7 +2069,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1977,7 +2091,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
@@ -1988,10 +2102,10 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2002,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2010,10 +2124,10 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2021,7 +2135,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2043,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2054,10 +2168,10 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2065,10 +2179,10 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2079,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2088,6 +2202,279 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2100,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2108,7 +2495,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2116,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2124,31 +2511,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2156,7 +2543,7 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2164,7 +2551,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2172,9 +2559,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2182,514 +2569,554 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2707,10 +3134,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -2718,109 +3145,109 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -2828,10 +3255,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>label</t>
   </si>
@@ -141,7 +141,7 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TFe,Fe{2+}/Fe_aq,FeCl{+}/FeCl_aq,(FeSO4)[1]/FeSO4_aq,(FeCO3)[1]/FeCO3_aq,FeHS{+}/FeHS_aq,Fe_aqLorg_aq/FeLorg_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_POC</t>
+    <t>TFe,Fe{2+}/Fe_aq,FeCl{+}/FeCl_aq,(FeSO4)[1]/FeSO4_aq,(FeCO3)[1]/FeCO3_aq,FeHS{+}/FeHS_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_POC</t>
   </si>
   <si>
     <t>TFe</t>
@@ -195,12 +195,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Lorg,Lorg_aq/Lorg_aq,Fe_aqLorg_aq/FeLorg_aq,Lorg_dis</t>
-  </si>
-  <si>
-    <t>modelled but not in chemical equation</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -279,12 +273,6 @@
     <t>FeHS</t>
   </si>
   <si>
-    <t>FeLorg_aq</t>
-  </si>
-  <si>
-    <t>Fe_aqLorg_aq</t>
-  </si>
-  <si>
     <t>TFe_dis</t>
   </si>
   <si>
@@ -312,19 +300,10 @@
     <t>Surface adsorbed</t>
   </si>
   <si>
-    <t>Lorg</t>
-  </si>
-  <si>
-    <t>Lorg_aq</t>
-  </si>
-  <si>
-    <t>Lorg_dis</t>
-  </si>
-  <si>
     <t>dependence</t>
   </si>
   <si>
-    <t>FeOOH,POC,SO4,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,Lorg</t>
+    <t>FeOOH,POC,SO4,TH2S,TCO2,H,TFe</t>
   </si>
   <si>
     <t>FeOOH,POC,SO4</t>
@@ -333,16 +312,16 @@
     <t>FeOOH,POC,TH2S</t>
   </si>
   <si>
-    <t>FeOOH,POC,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,SO4,Lorg</t>
+    <t>FeOOH,POC,TH2S,TCO2,H,TFe,SO4</t>
   </si>
   <si>
     <t>SO4,FeOOH,POC</t>
   </si>
   <si>
-    <t>SO4,FeOOH,POC,TH2S,TCO2,H,TFe,Lorg_dis,Fe_aq,Lorg</t>
-  </si>
-  <si>
-    <t>TCO2,H,TH2S,TFe,POC,Lorg_dis,Fe_aq,SO4,Lorg</t>
+    <t>SO4,FeOOH,POC,TH2S,TCO2,H,TFe</t>
+  </si>
+  <si>
+    <t>TCO2,H,TH2S,TFe,POC,SO4</t>
   </si>
   <si>
     <t>parameter</t>
@@ -375,9 +354,6 @@
     <t>TH2SID</t>
   </si>
   <si>
-    <t>LorgID</t>
-  </si>
-  <si>
     <t>AmPOC</t>
   </si>
   <si>
@@ -420,9 +396,6 @@
     <t>AmTFe_ads</t>
   </si>
   <si>
-    <t>AmLorg_dis</t>
-  </si>
-  <si>
     <t>BcAmPOC</t>
   </si>
   <si>
@@ -507,12 +480,6 @@
     <t>BcCmTFe_ads</t>
   </si>
   <si>
-    <t>BcAmLorg_dis</t>
-  </si>
-  <si>
-    <t>BcCmLorg_dis</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -546,9 +513,6 @@
     <t>TFe_dis0</t>
   </si>
   <si>
-    <t>Lorg_dis0</t>
-  </si>
-  <si>
     <t>dstopw</t>
   </si>
   <si>
@@ -582,7 +546,7 @@
     <t>Cl</t>
   </si>
   <si>
-    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq,FeLorg_aq</t>
+    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1672,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1699,15 +1663,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1728,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1739,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1761,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1783,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1794,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1827,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1838,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -1863,7 +1819,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1871,10 +1827,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1882,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1904,7 +1860,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1915,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1926,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1948,7 +1904,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1959,7 +1915,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1981,7 +1937,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2003,7 +1959,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2025,7 +1981,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -2036,7 +1992,7 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2069,7 +2025,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2102,7 +2058,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -2116,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2124,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
@@ -2157,7 +2113,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2179,7 +2135,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -2203,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2214,16 +2170,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
@@ -2234,10 +2190,10 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2246,7 +2202,7 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2254,19 +2210,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2274,19 +2230,19 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2294,19 +2250,19 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2314,19 +2270,19 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2334,19 +2290,15 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2354,15 +2306,15 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2370,15 +2322,15 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2386,87 +2338,15 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2495,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2503,7 +2383,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2511,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2519,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2527,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2535,7 +2415,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2543,7 +2423,7 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2551,7 +2431,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2569,479 +2449,479 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>161</v>
@@ -3049,74 +2929,34 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3134,10 +2974,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -3145,98 +2985,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -3244,10 +3084,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -3255,10 +3095,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>label</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>Cl</t>
-  </si>
-  <si>
-    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,FeHS_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -3013,18 +3010,18 @@
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3032,51 +3029,51 @@
         <v>160</v>
       </c>
       <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
         <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
         <v>177</v>
-      </c>
-      <c r="B7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
         <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -3084,10 +3081,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -3095,10 +3092,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>label</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSpre</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2960,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3090,17 +3087,6 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parsing_diagnostics.SimpleFe.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>label</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>kFeOOHH2S</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
   </si>
 </sst>
 </file>
@@ -2960,7 +2963,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3087,6 +3090,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
